--- a/notebooks/assets/test/RFpm25_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/RFpm25_st0_1_nomountains.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.198</v>
+        <v>1.275</v>
       </c>
       <c r="C2" t="n">
-        <v>0.898</v>
+        <v>0.908</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.589</v>
       </c>
       <c r="E2" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.889</v>
+        <v>0.88</v>
       </c>
       <c r="G2" t="n">
-        <v>1.363</v>
+        <v>1.351</v>
       </c>
       <c r="H2" t="n">
-        <v>1.172</v>
+        <v>1.125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.549</v>
+        <v>0.542</v>
       </c>
       <c r="J2" t="n">
-        <v>1.081</v>
+        <v>0.924</v>
       </c>
       <c r="K2" t="n">
-        <v>0.795</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.173</v>
+        <v>3.486</v>
       </c>
       <c r="C3" t="n">
-        <v>1.4</v>
+        <v>1.438</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="E3" t="n">
-        <v>1.297</v>
+        <v>1.551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.69</v>
+        <v>1.657</v>
       </c>
       <c r="G3" t="n">
-        <v>3.364</v>
+        <v>3.343</v>
       </c>
       <c r="H3" t="n">
-        <v>2.376</v>
+        <v>2.225</v>
       </c>
       <c r="I3" t="n">
-        <v>0.604</v>
+        <v>0.584</v>
       </c>
       <c r="J3" t="n">
-        <v>2.223</v>
+        <v>1.646</v>
       </c>
       <c r="K3" t="n">
-        <v>1.18</v>
+        <v>1.599</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.885</v>
+        <v>0.874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.796</v>
+        <v>0.79</v>
       </c>
       <c r="D4" t="n">
-        <v>0.661</v>
+        <v>0.673</v>
       </c>
       <c r="E4" t="n">
-        <v>0.879</v>
+        <v>0.855</v>
       </c>
       <c r="F4" t="n">
-        <v>0.772</v>
+        <v>0.776</v>
       </c>
       <c r="G4" t="n">
         <v>0.884</v>
       </c>
       <c r="H4" t="n">
-        <v>0.711</v>
+        <v>0.73</v>
       </c>
       <c r="I4" t="n">
-        <v>0.75</v>
+        <v>0.758</v>
       </c>
       <c r="J4" t="n">
-        <v>0.796</v>
+        <v>0.845</v>
       </c>
       <c r="K4" t="n">
-        <v>0.793</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="5">

--- a/notebooks/assets/test/RFpm25_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/RFpm25_st0_1_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,31 +459,6 @@
           <t>1007_1014_2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -492,33 +467,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.275</v>
+        <v>1.351</v>
       </c>
       <c r="C2" t="n">
-        <v>0.908</v>
+        <v>1.125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.589</v>
+        <v>0.542</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9</v>
+        <v>0.924</v>
       </c>
       <c r="F2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.351</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.924</v>
-      </c>
-      <c r="K2" t="n">
         <v>0.884</v>
       </c>
     </row>
@@ -529,33 +489,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.486</v>
+        <v>3.343</v>
       </c>
       <c r="C3" t="n">
-        <v>1.438</v>
+        <v>2.225</v>
       </c>
       <c r="D3" t="n">
-        <v>0.66</v>
+        <v>0.584</v>
       </c>
       <c r="E3" t="n">
-        <v>1.551</v>
+        <v>1.646</v>
       </c>
       <c r="F3" t="n">
-        <v>1.657</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.343</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.225</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.584</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.646</v>
-      </c>
-      <c r="K3" t="n">
         <v>1.599</v>
       </c>
     </row>
@@ -566,33 +511,18 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.874</v>
+        <v>0.884</v>
       </c>
       <c r="C4" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="D4" t="n">
-        <v>0.673</v>
+        <v>0.758</v>
       </c>
       <c r="E4" t="n">
-        <v>0.855</v>
+        <v>0.845</v>
       </c>
       <c r="F4" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.884</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.758</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.845</v>
-      </c>
-      <c r="K4" t="n">
         <v>0.723</v>
       </c>
     </row>
@@ -603,33 +533,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.8</v>
+        <v>8.23</v>
       </c>
       <c r="C5" t="n">
-        <v>6.556</v>
+        <v>7.914</v>
       </c>
       <c r="D5" t="n">
-        <v>2.11</v>
+        <v>1.386</v>
       </c>
       <c r="E5" t="n">
-        <v>3.06</v>
+        <v>3.581</v>
       </c>
       <c r="F5" t="n">
-        <v>3.478</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.914</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.386</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.581</v>
-      </c>
-      <c r="K5" t="n">
         <v>3.744</v>
       </c>
     </row>
@@ -640,33 +555,18 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.279</v>
+        <v>95.10899999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>57.593</v>
+        <v>76.441</v>
       </c>
       <c r="D6" t="n">
-        <v>7.548</v>
+        <v>2.867</v>
       </c>
       <c r="E6" t="n">
-        <v>13.266</v>
+        <v>16.923</v>
       </c>
       <c r="F6" t="n">
-        <v>16.591</v>
-      </c>
-      <c r="G6" t="n">
-        <v>95.10899999999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>76.441</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.867</v>
-      </c>
-      <c r="J6" t="n">
-        <v>16.923</v>
-      </c>
-      <c r="K6" t="n">
         <v>18.964</v>
       </c>
     </row>
@@ -677,33 +577,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.147</v>
+        <v>-2.312</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.492</v>
+        <v>-8.545999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.846</v>
+        <v>-0.185</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.258</v>
+        <v>-0.632</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.096</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-2.312</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-8.545999999999999</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.185</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-0.632</v>
-      </c>
-      <c r="K7" t="n">
         <v>-2.373</v>
       </c>
     </row>

--- a/notebooks/assets/test/RFpm25_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/RFpm25_st0_1_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.351</v>
+        <v>1.35</v>
       </c>
       <c r="C2" t="n">
-        <v>1.125</v>
+        <v>1.132</v>
       </c>
       <c r="D2" t="n">
-        <v>0.542</v>
+        <v>0.606</v>
       </c>
       <c r="E2" t="n">
-        <v>0.924</v>
+        <v>0.908</v>
       </c>
       <c r="F2" t="n">
-        <v>0.884</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.343</v>
+        <v>1.798</v>
       </c>
       <c r="C3" t="n">
-        <v>2.225</v>
+        <v>1.448</v>
       </c>
       <c r="D3" t="n">
-        <v>0.584</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>1.646</v>
+        <v>1.226</v>
       </c>
       <c r="F3" t="n">
-        <v>1.599</v>
+        <v>1.113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.884</v>
+        <v>3.254</v>
       </c>
       <c r="C4" t="n">
-        <v>0.73</v>
+        <v>2.131</v>
       </c>
       <c r="D4" t="n">
-        <v>0.758</v>
+        <v>0.709</v>
       </c>
       <c r="E4" t="n">
-        <v>0.845</v>
+        <v>1.536</v>
       </c>
       <c r="F4" t="n">
-        <v>0.723</v>
+        <v>1.267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.23</v>
+        <v>0.888</v>
       </c>
       <c r="C5" t="n">
-        <v>7.914</v>
+        <v>0.737</v>
       </c>
       <c r="D5" t="n">
-        <v>1.386</v>
+        <v>0.709</v>
       </c>
       <c r="E5" t="n">
-        <v>3.581</v>
+        <v>0.855</v>
       </c>
       <c r="F5" t="n">
-        <v>3.744</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95.10899999999999</v>
+        <v>8.23</v>
       </c>
       <c r="C6" t="n">
-        <v>76.441</v>
+        <v>7.914</v>
       </c>
       <c r="D6" t="n">
-        <v>2.867</v>
+        <v>1.386</v>
       </c>
       <c r="E6" t="n">
-        <v>16.923</v>
+        <v>3.581</v>
       </c>
       <c r="F6" t="n">
-        <v>18.964</v>
+        <v>3.744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9.663</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.714</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.336</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>95.10899999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>76.441</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.867</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16.923</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18.964</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>-2.312</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>-8.545999999999999</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>-0.185</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>-0.632</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>-2.373</v>
       </c>
     </row>

--- a/notebooks/assets/test/RFpm25_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/RFpm25_st0_1_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.35</v>
+        <v>1.468</v>
       </c>
       <c r="C2" t="n">
-        <v>1.132</v>
+        <v>1.102</v>
       </c>
       <c r="D2" t="n">
-        <v>0.606</v>
+        <v>0.652</v>
       </c>
       <c r="E2" t="n">
-        <v>0.908</v>
+        <v>0.868</v>
       </c>
       <c r="F2" t="n">
-        <v>0.834</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.798</v>
+        <v>1.975</v>
       </c>
       <c r="C3" t="n">
-        <v>1.448</v>
+        <v>1.368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.869</v>
       </c>
       <c r="E3" t="n">
-        <v>1.226</v>
+        <v>1.139</v>
       </c>
       <c r="F3" t="n">
-        <v>1.113</v>
+        <v>1.192</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.254</v>
+        <v>3.902</v>
       </c>
       <c r="C4" t="n">
-        <v>2.131</v>
+        <v>1.889</v>
       </c>
       <c r="D4" t="n">
-        <v>0.709</v>
+        <v>0.775</v>
       </c>
       <c r="E4" t="n">
-        <v>1.536</v>
+        <v>1.321</v>
       </c>
       <c r="F4" t="n">
-        <v>1.267</v>
+        <v>1.452</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.888</v>
+        <v>0.867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.737</v>
+        <v>0.765</v>
       </c>
       <c r="D5" t="n">
-        <v>0.709</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.855</v>
+        <v>0.874</v>
       </c>
       <c r="F5" t="n">
-        <v>0.782</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="6">

--- a/notebooks/assets/test/RFpm25_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/RFpm25_st0_1_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.468</v>
+        <v>1.448</v>
       </c>
       <c r="C2" t="n">
-        <v>1.102</v>
+        <v>1.093</v>
       </c>
       <c r="D2" t="n">
-        <v>0.652</v>
+        <v>0.646</v>
       </c>
       <c r="E2" t="n">
-        <v>0.868</v>
+        <v>0.898</v>
       </c>
       <c r="F2" t="n">
-        <v>0.874</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.975</v>
+        <v>1.94</v>
       </c>
       <c r="C3" t="n">
-        <v>1.368</v>
+        <v>1.362</v>
       </c>
       <c r="D3" t="n">
-        <v>0.869</v>
+        <v>0.868</v>
       </c>
       <c r="E3" t="n">
-        <v>1.139</v>
+        <v>1.165</v>
       </c>
       <c r="F3" t="n">
-        <v>1.192</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.902</v>
+        <v>3.772</v>
       </c>
       <c r="C4" t="n">
-        <v>1.889</v>
+        <v>1.874</v>
       </c>
       <c r="D4" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="E4" t="n">
-        <v>1.321</v>
+        <v>1.376</v>
       </c>
       <c r="F4" t="n">
-        <v>1.452</v>
+        <v>1.197</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.867</v>
+        <v>0.872</v>
       </c>
       <c r="C5" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.874</v>
+        <v>0.87</v>
       </c>
       <c r="F5" t="n">
-        <v>0.747</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="6">
